--- a/src/main/resources/static/files/sample/excel/dues/duesUploadSample.xlsx
+++ b/src/main/resources/static/files/sample/excel/dues/duesUploadSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3TOP_195\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE312A3-5778-47E3-9E71-E48D462813DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2A8AB8-648F-4D7A-BD10-9C7AEA9D9DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5835" yWindow="1350" windowWidth="26775" windowHeight="17685" xr2:uid="{8F7200AB-5977-4533-B36E-3343C35D5D01}"/>
   </bookViews>
@@ -236,14 +236,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,10 +568,10 @@
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="18.625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="18.625" style="8" customWidth="1"/>
     <col min="4" max="5" width="15.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="7" customWidth="1"/>
     <col min="8" max="8" width="30.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="11" width="12.625" style="1" customWidth="1"/>
@@ -581,6 +581,7 @@
     <row r="1" spans="2:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
@@ -598,7 +599,7 @@
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="6" t="s">
